--- a/BOM_cost.xlsx
+++ b/BOM_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Muse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1D1C5-2389-4F47-B25B-6ADA34B3D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D625595-E537-4EF1-BFD9-0F7D728D418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6AA4E3EF-6026-4AD8-95F8-4C1D441B6E03}"/>
+    <workbookView xWindow="3540" yWindow="732" windowWidth="17280" windowHeight="10020" activeTab="1" xr2:uid="{6AA4E3EF-6026-4AD8-95F8-4C1D441B6E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>part</t>
   </si>
@@ -226,6 +225,18 @@
   </si>
   <si>
     <t>duty</t>
+  </si>
+  <si>
+    <t>shipping required:</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Megan?</t>
+  </si>
+  <si>
+    <t>Patrick</t>
   </si>
 </sst>
 </file>
@@ -942,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF4383A-8F7D-4AC5-BB9B-5971CAFD3530}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +965,7 @@
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1085,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1175,7 +1186,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1201,7 +1212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1308,8 +1319,11 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1334,11 @@
       <c r="H16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1339,8 +1356,11 @@
       <c r="H17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1378,11 @@
       <c r="H18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1377,8 +1400,11 @@
       <c r="H19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1396,8 +1422,11 @@
       <c r="H20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1473,7 +1502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
         <v>40</v>
       </c>
@@ -1491,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660FF8D2-51CA-44F2-965A-A4629CFDB61E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
